--- a/experiments/optics-ajk/sbert/0.3/prediction.xlsx
+++ b/experiments/optics-ajk/sbert/0.3/prediction.xlsx
@@ -458,51 +458,51 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
+          <t>A passenger aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
+          <t>AE Locked. Metering disabled</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A passenger aircraft is nearby. Fly with caution</t>
+          <t>APAS has been enabled</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Fly with caution</t>
+          <t>API Automatic Return Home</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
+          <t>API Automatic Takeoff</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
@@ -538,67 +538,67 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AE Locked. Metering disabled</t>
+          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
+          <t>ActiveTrack Flight Ended: Cannot find subject</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
+          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Aircraft Core Board Overheated</t>
+          <t>ActiveTrack Flight Paused</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
+          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
+          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak. Home Point not updated</t>
+          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -608,47 +608,47 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
+          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
+          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
+          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
+          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
+          <t>Aircraft Core Board Overheated</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
+          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Aircraft is now following you.</t>
+          <t>Aircraft GPS signal too weak. Home Point not updated</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
+          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -698,27 +698,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
+          <t>Aircraft battery level low. Return to home promptly</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient. Fly with caution</t>
+          <t>Aircraft close to Home Point. go home shifts to landing.</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
+          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -728,77 +728,77 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Aircraft settings updated to comply with national regulations</t>
+          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Aircraft flight control locked</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error. Restart aircraft</t>
+          <t>Aircraft flight control obtained by remote controller A</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
+          <t>Aircraft flight control obtained by remote controller B</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Aircraft will automatically descend in nnn</t>
+          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
+          <t>Aircraft flight control unlocked</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
+          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
+          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
+          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -818,87 +818,87 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Altitude Zone nnn</t>
+          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>APAS has been enabled</t>
+          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>API Automatic Return Home</t>
+          <t>Aircraft in high interference environment. Fly with caution</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>API Automatic Takeoff</t>
+          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
+          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Attitude is too large.</t>
+          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Auto Landing in nnn(s)</t>
+          <t>Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Auto landing initiated</t>
+          <t>Aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Away and Follow in progress.</t>
+          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Barometer Dead in Air</t>
+          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Barometer initialization failed. Restart aircraft</t>
+          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
+          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -938,17 +938,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Battery cell broken, please replace the battery</t>
+          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Battery cells undervoltage</t>
+          <t>Aircraft is now following you.</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -958,97 +958,97 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Battery error. Aircraft returning to home automatically</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Battery level low. Charge battery</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Battery nnn requires maintenance</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Battery power low. Check battery status and charge or warm up battery</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Battery Voltage Difference too large. Check Battery Status</t>
+          <t>Aircraft is returning to the starting point</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
+          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Battery: Connection Error</t>
+          <t>Aircraft is too far away</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-1</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Battery: Low Voltage Protection</t>
+          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Battery: Overcurrent During Discharge</t>
+          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
+          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1078,27 +1078,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Cache Space Full</t>
+          <t>Aircraft out of Range</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-1</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
+          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Calibration target not far away enough. Please calibrate using infinity</t>
+          <t>Aircraft power insufficient. Fly with caution</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1108,27 +1108,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Camera busy, cannot enter playback</t>
+          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-1</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Camera error. AI Spot-Check failed. Restart camera</t>
+          <t>Aircraft processor overheated. Automatically returning to home</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-1</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Camera storage full</t>
+          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
+          <t>Aircraft settings updated to comply with national regulations</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Cannot enter the selected flight mode. Try again later.</t>
+          <t>Aircraft takeoff altitude error. Restart aircraft</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Cannot exit ActiveTrack</t>
+          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1178,17 +1178,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Cannot send ActiveTrack command</t>
+          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-1</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Cannot start Return to Home due to weak GPS signal</t>
+          <t>Aircraft will automatically descend in nnn</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Cannot start Self-Timer. Exposure time is too long</t>
+          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
+          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
+          <t>Altitude Zone nnn</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Cannot track subject: Gimbal Tilt too Large</t>
+          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1238,97 +1238,97 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Cannot track subject: No image. Please retry</t>
+          <t>Ambient Light is too weak.</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Capture Failed Cannot enter Pano mode</t>
+          <t>Ambient Light too Weak</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Compass initialization failed. Restart aircraft</t>
+          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Critical low battery voltage</t>
+          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Critical low battery. Unable to take off. Recharge promptly</t>
+          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
+          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
+          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Current elevation above nnn. Fly with caution</t>
+          <t>Another aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 15.</t>
+          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1338,67 +1338,67 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Disable SD card read and write protection or change card</t>
+          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-1</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Distance limit enabled. Fly safely</t>
+          <t>Arrived at End Point</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds</t>
+          <t>Arrived at Start Point. Starting Waypoint Mission</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-1</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Downlink Lost.</t>
+          <t>Arrived at destination</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11.3s).</t>
+          <t>At Least Two Waypoints Required</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11s).</t>
+          <t>At least two Waypoints are needed</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1s).</t>
+          <t>Attitude is too large.</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1408,47 +1408,47 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Downward infrared sensor failure. Land as soon as possible</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
+          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Drone is Vibrating</t>
+          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>EMMC is full</t>
+          <t>Auto Landing in nnn(s)</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Ensure control sticks are centered during takeoff</t>
+          <t>Auto landing initiated</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1468,37 +1468,37 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
+          <t>Auxiliary Bottom Light set to automatic mode</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-1</v>
+        <v>86</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Exiting GPS mode: Unknown Error</t>
+          <t>Auxiliary Bottom Light turned off</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-1</v>
+        <v>86</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
+          <t>Auxiliary Bottom Light turned on</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-1</v>
+        <v>86</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Flight control mode error, cannot start recording QuickShot</t>
+          <t>Away and Follow in progress.</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1508,47 +1508,47 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Flight height too low</t>
+          <t>Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
+          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Gimbal calibrating</t>
+          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
+          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>GPS Position Mismatch.</t>
+          <t>Barometer Dead in Air</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
+          <t>Barometer initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1578,17 +1578,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Ground Plain. Safe to Land.</t>
+          <t>Battery Signal Error. Check battery connection.</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed. Restart aircraft</t>
+          <t>Battery Voltage Difference too large. Check Battery Status</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
+          <t>Battery cell broken, please replace the battery</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
+          <t>Battery cells undervoltage</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1618,17 +1618,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Home Point Recorded. RTH Altitude : 30m.</t>
+          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Image transmission signal lost</t>
+          <t>Battery error. Aircraft returning to home automatically</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1638,17 +1638,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>IMU attitude restricted. Ensure aircraft is level</t>
+          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>IMU warming up. Wait before taking off</t>
+          <t>Battery level low. Charge battery</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>In Flight.</t>
+          <t>Battery nnn requires maintenance</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1668,27 +1668,27 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
+          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Landing Canceled.</t>
+          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Landing gear function restored</t>
+          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Landing Gear Paused.</t>
+          <t>Battery power low. Check battery status and charge or warm up battery</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Landing Gear Raising. Home Point Recorded</t>
+          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -1718,27 +1718,27 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Landing.</t>
+          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Large Wind Velocity.</t>
+          <t>Battery temperature too low. Fly with caution</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Lens not connected</t>
+          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1748,7 +1748,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
+          <t>Battery: Connection Error</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
+          <t>Battery: Low Voltage Protection</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
+          <t>Battery: Overcurrent During Discharge</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Loading database failed. Geo-awareness function degraded</t>
+          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -1788,27 +1788,27 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Low battery voltage. Fly with caution</t>
+          <t>Braking now! Return sticks to midpoints first.</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-1</v>
+        <v>87</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Low battery. Return to home promptly</t>
+          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-1</v>
+        <v>87</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Low power, please replace the battery</t>
+          <t>Cache Space Full</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Low Power. Aircraft is returning to the Home Point.</t>
+          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Low Power. Returning home.</t>
+          <t>Calibration target not far away enough. Please calibrate using infinity</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -1838,57 +1838,57 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Manned aircraft detected nearby. Fly with caution</t>
+          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Min Waypoint Distance: nnn</t>
+          <t>Camera Settings ActiveTrack Optimized</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-1</v>
+        <v>88</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
+          <t>Camera Settings Adjusted</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-1</v>
+        <v>88</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
+          <t>Camera Settings Adjusted to ActiveTrack</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-1</v>
+        <v>88</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Motor nnn stalled. Land aircraft immediately</t>
+          <t>Camera busy, cannot enter playback</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Motor unable to rotate. Check motor</t>
+          <t>Camera error. AI Spot-Check failed. Restart camera</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -1908,27 +1908,27 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Motors Started.</t>
+          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
+          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
+          <t>Camera storage full</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -1938,47 +1938,47 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Not Enough Force/ESC Error</t>
+          <t>Cancel Landing Failed</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled.</t>
+          <t>Cancel Return-to-Home Failed</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Fly with caution</t>
+          <t>Cannot Enter TapFly Cannot fly in that direction</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance will be disabled in landing.</t>
+          <t>Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Obstacle Avoided. Revise Flight Route</t>
+          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -1988,27 +1988,27 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
+          <t>Cannot Track Subject. Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
+          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>PalmControl in Process</t>
+          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Pano shooting completed. The sky part is filled automatically</t>
+          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2028,17 +2028,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Pano successful</t>
+          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Panorama Captured Successfully</t>
+          <t>Cannot enter the selected flight mode. Try again later.</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
+          <t>Cannot exit ActiveTrack</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Cannot send ActiveTrack command</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Cannot start Return to Home due to weak GPS signal</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Propulsion output has been limited to ensure battery health.</t>
+          <t>Cannot start Self-Timer. Exposure time is too long</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2088,37 +2088,37 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Rectifying aircraft position</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Remote controller assisted takeoff initiated.</t>
+          <t>Cannot takeoff in a no-fly zone</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Remote controller battery level low. Recharge promptly</t>
+          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2128,17 +2128,17 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Remote controller disconnected from aircraft</t>
+          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
+          <t>Cannot track subject: Gimbal Tilt too Large</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Remote ID functionality normal</t>
+          <t>Cannot track subject: No image. Please retry</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2158,27 +2158,27 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Returning to the Home Point</t>
+          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>RTH : Cruise.</t>
+          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>RTH : Heading alignment.</t>
+          <t>Capture Failed Cannot enter Pano mode</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2188,1117 +2188,1117 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>RTH : Preascending.</t>
+          <t>Capture Failed Shooting interrupted</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-1</v>
+        <v>93</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
+          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>-1</v>
+        <v>94</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
+          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-1</v>
+        <v>95</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Running Flight Simulator. Restart aircraft to take off</t>
+          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-1</v>
+        <v>95</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Satellite positioning off. Fly with Caution.</t>
+          <t>Capture Failed. Shooting is currently not permitted</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>-1</v>
+        <v>93</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>SD card speed low. Change card</t>
+          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-1</v>
+        <v>94</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
+          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>-1</v>
+        <v>94</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sensing system is blocked or too close to the obstacle.</t>
+          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>-1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Set Flight Mode to GPS to fly safe</t>
+          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>-1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Signal Lost. Aircraft returning to Home Point</t>
+          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-1</v>
+        <v>96</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Starting Smart Track</t>
+          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>-1</v>
+        <v>96</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Subject lost. Searching …</t>
+          <t>Command Failed</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>-1</v>
+        <v>97</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
+          <t>Command Timeout</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>-1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Switched to P (Positioning)-mode.</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Switched to S (Sport)-mode.</t>
+          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Switched to T (Tripod)-mode.</t>
+          <t>Compass Error. Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Take off and retry this function.</t>
+          <t>Compass Error. Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Taking Off.</t>
+          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Tap to choose a valid zone.</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
+          <t>Compass Error. Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
+          <t>Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Unable to take off</t>
+          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>-1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
+          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Upward Obstacle Detected</t>
+          <t>Compass Error. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>-1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
+          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>-1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Vision systems and obstacle avoidance disabled</t>
+          <t>Compass Interference. Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>-1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate. Fly with caution</t>
+          <t>Compass Interference. Temp Max Altitude: nnn</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>-1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Warning</t>
+          <t>Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
+          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
+          <t>Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
+          <t>Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Yaw Error.</t>
+          <t>Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>-1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
+          <t>Compass error, calibration required</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
+          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
+          <t>Compass initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>36</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Cannot find subject</t>
+          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>36</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Paused</t>
+          <t>Critical Low Battery</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
+          <t>Critical low battery voltage</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>36</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Aircraft is entering a restricted area</t>
+          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
+          <t>Critical low battery. Aircraft landing automatically</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Image Transmission Recovered. Aircraft is returning home.</t>
+          <t>Critical low battery. Aircraft returning to home</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
+          <t>Critical low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Critical low battery. Return to home or land promptly</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
+          <t>Critical low battery. Unable to take off. Recharge promptly</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>38</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
+          <t>Critically Low Power. Aircraft Landing</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Aircraft battery level low. Return to home promptly</t>
+          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>39</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft returning to home</t>
+          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Critical low battery. Return to home or land promptly</t>
+          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Aircraft close to Home Point. go home shifts to landing.</t>
+          <t>Critically Low Voltage. Aircraft will land</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
+          <t>Critically low power. Aircraft is landing</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
+          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>46</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
+          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>47</v>
+        <v>81</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Exited Hyperlapse mode</t>
+          <t>Current elevation above nnn. Fly with caution</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>47</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Aircraft flight control locked</t>
+          <t>Data Recorder File Index is 12.</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>48</v>
+        <v>101</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Aircraft flight control unlocked</t>
+          <t>Data Recorder File Index is 13.</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>48</v>
+        <v>101</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller A</t>
+          <t>Data Recorder File Index is 15.</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>13</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller B</t>
+          <t>Data Recorder File Index is 17.</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>13</v>
+        <v>102</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
+          <t>Data Recorder File Index is 18.</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>13</v>
+        <v>102</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Data Recorder File Index is 19.</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>51</v>
+        <v>102</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
+          <t>Data Recorder File Index is 2.</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>51</v>
+        <v>104</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Setting new Maximum Flight Altitude to nnn</t>
+          <t>Data Recorder File Index is 21.</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>51</v>
+        <v>102</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Fly with caution</t>
+          <t>Data Recorder File Index is 29.</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>8</v>
+        <v>103</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Strong Aircraft Interference</t>
+          <t>Data Recorder File Index is 3.</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>8</v>
+        <v>104</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Data Recorder File Index is 30.</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Data Recorder File Index is 4.</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>9</v>
+        <v>104</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
+          <t>Data Recorder File Index is 45.</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>61</v>
+        <v>106</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
+          <t>Data Recorder File Index is 46.</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>61</v>
+        <v>106</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Cannot takeoff in a no-fly zone</t>
+          <t>Data Recorder File Index is 5.</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>61</v>
+        <v>104</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Aircraft is flying back to the start point</t>
+          <t>Data Recorder File Index is 57.</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>62</v>
+        <v>107</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the starting point</t>
+          <t>Data Recorder File Index is 65.</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>62</v>
+        <v>107</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>The aircraft is flying back to the start point</t>
+          <t>Data Recorder File Index is 7.</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>62</v>
+        <v>105</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
+          <t>Data Recorder File Index is 8.</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>63</v>
+        <v>105</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
+          <t>Descending. Exited Visual Avoidance System</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>63</v>
+        <v>108</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Detecting subject</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Disable SD card read and write protection or change card</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>74</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Distance limit enabled. Fly safely</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>74</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Downlink Lost.</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>74</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Downlink Restored (after 0m 0.9s).</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>74</v>
+        <v>109</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Downlink Restored (after 0m 1.1s).</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>74</v>
+        <v>109</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
+          <t>Downlink Restored (after 0m 1.2s).</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>75</v>
+        <v>109</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
+          <t>Downlink Restored (after 0m 1.4s).</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>75</v>
+        <v>109</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Aircraft is too far away</t>
+          <t>Downlink Restored (after 0m 1.5s).</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>76</v>
+        <v>109</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Aircraft out of Range</t>
+          <t>Downlink Restored (after 0m 1.6s).</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>76</v>
+        <v>109</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
+          <t>Downlink Restored (after 0m 1.7s).</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>78</v>
+        <v>109</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated. Automatically returning to home</t>
+          <t>Downlink Restored (after 0m 11.3s).</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>78</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Downlink Restored (after 0m 11s).</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>79</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
+          <t>Downlink Restored (after 0m 1s).</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>79</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Downlink Restored (after 0m 2.2s).</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>79</v>
+        <v>110</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak.</t>
+          <t>Downlink Restored (after 0m 2.3s).</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak</t>
+          <t>Downlink Restored (after 0m 2.9s).</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
+          <t>Downlink Restored (after 0m 5.6s).</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>68</v>
+        <v>111</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Downlink Restored (after 0m 5.8s).</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>68</v>
+        <v>111</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Downlink data connection lost for nnn seconds</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>68</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>69</v>
+        <v>26</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
+          <t>Downward infrared sensor failure. Land as soon as possible</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>81</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
+          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>81</v>
+        <v>26</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Arrived at destination</t>
+          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>82</v>
+        <v>34</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Arrived at End Point</t>
+          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>82</v>
+        <v>26</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Arrived at Start Point. Starting Waypoint Mission</t>
+          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>83</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Executing waypoint mission</t>
+          <t>Drone is Vibrating</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>83</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Waypoint Mission Start</t>
+          <t>During Smart Track, you can control lens zoom within a certain limit</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>83</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>At least two Waypoints are needed</t>
+          <t>EMMC is full</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>85</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>At Least Two Waypoints Required</t>
+          <t>Ensure control sticks are centered during takeoff</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>85</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
+          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>72</v>
+        <v>112</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
+          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>72</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
+          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -3308,317 +3308,317 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
+          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>72</v>
+        <v>113</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
+          <t>Executing waypoint mission</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light set to automatic mode</t>
+          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned off</t>
+          <t>Exited Cruise Control mode</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>86</v>
+        <v>112</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned on</t>
+          <t>Exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>86</v>
+        <v>47</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning.</t>
+          <t>Exited Visual Avoidance System.</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>71</v>
+        <v>108</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
+          <t>Exiting GPS mode: Unknown Error</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>71</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning.</t>
+          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Responding</t>
+          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>71</v>
+        <v>114</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Working.</t>
+          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>71</v>
+        <v>114</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>70</v>
+        <v>114</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>70</v>
+        <v>116</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
+          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>70</v>
+        <v>116</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Failed to cancel Return to Home</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Failed to cancel landing</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked. Fly with caution</t>
+          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>67</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
+          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
+          <t>File system error. Change SD card</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>44</v>
+        <v>117</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
+          <t>Flight Mode Set to Attitude</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>44</v>
+        <v>119</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Battery Signal Error. Check battery connection.</t>
+          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
+          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
+          <t>Flight control mode error, cannot start recording QuickShot</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Battery temperature too low. Fly with caution</t>
+          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
+          <t>Flight height too low</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Braking now! Return sticks to midpoints first.</t>
+          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>87</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
+          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>87</v>
+        <v>15</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
+          <t>Forward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>27</v>
+        <v>71</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
+          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>27</v>
+        <v>70</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
+          <t>Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>27</v>
+        <v>71</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Forward Obstacle Sensing not Working.</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>31</v>
+        <v>71</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
+          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -3628,2217 +3628,2217 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>26</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
+          <t>GPS Position Mismatch.</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>26</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
+          <t>GPS module error. Restart aircraft</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Vision sensor error. Contact DJI Support for assistance</t>
+          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>26</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Camera Settings ActiveTrack Optimized</t>
+          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>88</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted</t>
+          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>88</v>
+        <v>49</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted to ActiveTrack</t>
+          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>88</v>
+        <v>49</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Cancel Landing Failed</t>
+          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>89</v>
+        <v>35</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Failed to cancel landing</t>
+          <t>Gimbal Pitch Limit Reached.</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>89</v>
+        <v>121</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Cancel Return-to-Home Failed</t>
+          <t>Gimbal Pitch Reached Movement Limit</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>90</v>
+        <v>121</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Failed to cancel Return to Home</t>
+          <t>Gimbal Recenter</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>90</v>
+        <v>122</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
+          <t>Gimbal Roll Limit Reached.</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>33</v>
+        <v>121</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
+          <t>Gimbal Yaw Limit Reached</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>33</v>
+        <v>121</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed</t>
+          <t>Gimbal calibrating</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>33</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
+          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Cannot Enter TapFly Cannot fly in that direction</t>
+          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>91</v>
+        <v>113</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Gimbal nnn pan axis endpoint reached</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Cannot Identify Subject</t>
+          <t>Gimbal nnn pitch axis endpoint reached</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>73</v>
+        <v>120</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Cannot Track Subject. Cannot Identify Subject</t>
+          <t>Gimbal nnn roll axis endpoint reached</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>73</v>
+        <v>120</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Detecting subject</t>
+          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>73</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Subject lost. Reselect subject</t>
+          <t>Ground Plain. Safe to Land.</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>73</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
+          <t>Gyroscope initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>32</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
+          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>32</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
+          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>92</v>
+        <v>123</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Subject too Large. Move Away and retry</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>92</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Subject too Small. Get Closer and retry</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Capture Failed Shooting interrupted</t>
+          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Capture Failed. Shooting is currently not permitted</t>
+          <t>High wind velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
+          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>94</v>
+        <v>123</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>94</v>
+        <v>58</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>94</v>
+        <v>58</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
+          <t>Home Point Recorded.</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>95</v>
+        <v>124</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
+          <t>Home Point Recorded. RTH Altitude : 30m.</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
+          <t>Home Point Recorded. Taking off.</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>28</v>
+        <v>124</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
+          <t>Home Point Updated.</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>28</v>
+        <v>124</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>96</v>
+        <v>58</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>96</v>
+        <v>58</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Command Failed</t>
+          <t>Home Point updated. RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>97</v>
+        <v>54</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Warning: Command Failed</t>
+          <t>IMU attitude restricted. Ensure aircraft is level</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Command Timeout</t>
+          <t>IMU calibration required. Calibrate IMU</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>98</v>
+        <v>126</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Warning: Command Timeout</t>
+          <t>IMU not calibrated. Calibrate IMU</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>98</v>
+        <v>126</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
+          <t>IMU warming up. Wait before taking off</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>15</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
+          <t>Image Transmission Recovered. Aircraft is returning home.</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Compass data error. Please contact DJI Support</t>
+          <t>Image transmission signal lost</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>19</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>19</v>
+        <v>125</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
+          <t>Impact detected. Restart aircraft</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>19</v>
+        <v>125</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>In Flight.</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>19</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
+          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>19</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU</t>
+          <t>Insufficient SD card space. Change card or delete files</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Compass Error. Compass direction is not the same with IMU</t>
+          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Landing Canceled.</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>17</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Compass error, calibration required</t>
+          <t>Landing Gear Lowered.</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Landing Gear Lowering.</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Landing Gear Paused.</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>23</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
+          <t>Landing Gear Raised.</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Compass Error. Compass disconnected</t>
+          <t>Landing Gear Raising.</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass disconnected</t>
+          <t>Landing Gear Raising. Home Point Recorded</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>16</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>14</v>
+        <v>63</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
+          <t>Landing gear function restored</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Redundancy Switch</t>
+          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Compass Redundancy Switch</t>
+          <t>Landing.</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Compass Error. Exit P-GPS Mode</t>
+          <t>Large Wind Velocity.</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>21</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Large Wind Velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude : 98ft</t>
+          <t>Lens not connected</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>24</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude: nnn</t>
+          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>24</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Critical Low Battery</t>
+          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>40</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Critical low battery. Recharge promptly</t>
+          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>40</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Low battery. Recharge promptly</t>
+          <t>Loading database failed. Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>40</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery. Please change the battery</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
+          <t>Low Power. Aircraft is returning to the Home Point.</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>41</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft landing automatically</t>
+          <t>Low Power. Returning home.</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>41</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Critically low power. Aircraft is landing</t>
+          <t>Low battery voltage. Fly with caution</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>43</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing</t>
+          <t>Low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
+          <t>Low battery. Return to home promptly</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>42</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
+          <t>Low power, please replace the battery</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>42</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Critically Low Voltage. Aircraft will land</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 12.</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>101</v>
+        <v>22</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 13.</t>
+          <t>Manned aircraft approaching. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>101</v>
+        <v>11</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 17.</t>
+          <t>Manned aircraft detected nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>102</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 18.</t>
+          <t>Manned aircraft too close. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 19.</t>
+          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>102</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 21.</t>
+          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>102</v>
+        <v>56</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 2.</t>
+          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>104</v>
+        <v>57</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 3.</t>
+          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>104</v>
+        <v>51</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 4.</t>
+          <t>Maximum Flight Altitude Reached.</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>104</v>
+        <v>55</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 5.</t>
+          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>104</v>
+        <v>57</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 29.</t>
+          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>103</v>
+        <v>57</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 30.</t>
+          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>103</v>
+        <v>57</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 45.</t>
+          <t>Min Waypoint Distance: nnn</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>106</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 46.</t>
+          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>106</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 57.</t>
+          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>107</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 65.</t>
+          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>107</v>
+        <v>128</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 7.</t>
+          <t>Motor error. Check propellers and fly with caution</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>105</v>
+        <v>30</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 8.</t>
+          <t>Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>105</v>
+        <v>127</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Descending. Exited Visual Avoidance System</t>
+          <t>Motor is Blocked</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>108</v>
+        <v>128</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Exited Visual Avoidance System.</t>
+          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>108</v>
+        <v>29</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 0.9s).</t>
+          <t>Motor is idling (lost or missing propeller)</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.1s).</t>
+          <t>Motor nnn propeller detached or installed incorrectly</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.2s).</t>
+          <t>Motor nnn stalled. Land aircraft immediately</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>109</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.4s).</t>
+          <t>Motor or propeller error. Check the motors and propellers.</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>109</v>
+        <v>30</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.5s).</t>
+          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>109</v>
+        <v>29</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.6s).</t>
+          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>109</v>
+        <v>29</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.7s).</t>
+          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>109</v>
+        <v>29</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.2s).</t>
+          <t>Motor unable to rotate. Check motor</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>110</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.3s).</t>
+          <t>Motors Started.</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>110</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.9s).</t>
+          <t>Navigation system error. Restart aircraft</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>110</v>
+        <v>25</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.6s).</t>
+          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>111</v>
+        <v>50</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.8s).</t>
+          <t>No GPS signal. Unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>111</v>
+        <v>50</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
+          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>34</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
+          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>34</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
+          <t>No SD card. Insert card</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Exited Cruise Control mode</t>
+          <t>Not Allowed to change Aircraft Mode. If needed</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>112</v>
+        <v>33</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
+          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>113</v>
+        <v>33</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
+          <t>Not Enough Force/ESC Error</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>113</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Object too close to laser rangefinder</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
+          <t>Object too far for laser rangefinder</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>114</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
+          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>114</v>
+        <v>64</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Obstacle Avoidance disabled. Fly with caution</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>114</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>116</v>
+        <v>64</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Obstacle Avoidance will be disabled in landing.</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>116</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Obstacle Avoided. Revise Flight Route</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>116</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>File system error. Change SD card</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>117</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>No SD card. Insert card</t>
+          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>117</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>SD card malfunction. Change card</t>
+          <t>PalmControl in Process</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>117</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Pano shooting completed. The sky part is filled automatically</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>52</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
+          <t>Pano successful</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>52</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Flight Mode Set to Attitude</t>
+          <t>Panorama Captured Successfully</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>119</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Switched to A (Attitude)-mode</t>
+          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>53</v>
+        <v>115</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>53</v>
+        <v>115</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
+          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>53</v>
+        <v>116</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>35</v>
+        <v>99</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
+          <t>Precision Landing. Correcting Landing Position.</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>35</v>
+        <v>99</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Gimbal nnn pan axis endpoint reached</t>
+          <t>Precision Landing. Locating Landing Point</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Gimbal nnn pitch axis endpoint reached</t>
+          <t>Precision Landing. Rectifying aircraft position.</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>120</v>
+        <v>99</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Gimbal nnn roll axis endpoint reached</t>
+          <t>Propeller Fell Off</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Limit Reached.</t>
+          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Reached Movement Limit</t>
+          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>121</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Gimbal Roll Limit Reached.</t>
+          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>121</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Gimbal Yaw Limit Reached</t>
+          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>121</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Gimbal Recenter</t>
+          <t>Propellers not installed</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Recenter Gimbal Pan</t>
+          <t>Propulsion output has been limited to ensure battery health.</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>122</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>GPS module error. Restart aircraft</t>
+          <t>QuickShot has ended</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>25</v>
+        <v>130</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Navigation system error. Restart aircraft</t>
+          <t>RTH : Ascending to RTH altitude.</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
+          <t>RTH : Cruise.</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>49</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
+          <t>RTH : Heading alignment.</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>49</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
+          <t>RTH : Preascending.</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>123</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
+          <t>RTH Altitude : 65FT.</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>123</v>
+        <v>60</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
+          <t>RTH Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>3</v>
+        <v>54</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution.</t>
+          <t>RTK Base Station Data Not Received</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>3</v>
+        <v>133</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Large Wind Velocity. Fly with caution.</t>
+          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>3</v>
+        <v>133</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Strong wind. Fly with caution</t>
+          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
+          <t>Reaching maximum altitude...</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
+          <t>Recenter Gimbal Pan</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>58</v>
+        <v>122</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>58</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
+          <t>Rectifying aircraft position</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>58</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Home Point Recorded.</t>
+          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Home Point Recorded. Taking off.</t>
+          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>124</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Home Point Updated.</t>
+          <t>Remote ID functionality normal</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>124</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Home Point updated. RTH altitude adjusted to nnn</t>
+          <t>Remote controller assisted takeoff initiated.</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>54</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>RTH altitude adjusted to nnn</t>
+          <t>Remote controller battery level low. Recharge promptly</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>54</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Setting new Return-To-Home altitude to nnn</t>
+          <t>Remote controller disconnected from aircraft</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>54</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
+          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>125</v>
+        <v>9</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Impact detected. Restart aircraft</t>
+          <t>Remote controller signal lost</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>125</v>
+        <v>10</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>IMU calibration required. Calibrate IMU</t>
+          <t>Remote controller signal weak. Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>126</v>
+        <v>10</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>IMU not calibrated. Calibrate IMU</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Insufficient SD card space. Change card or delete files</t>
+          <t>Restart aircraft and DJI Fly</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>SD card full. Change card or delete files</t>
+          <t>Return-to-Home Altitude : 65FT</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>118</v>
+        <v>59</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Landing Gear Lowered.</t>
+          <t>Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Landing Gear Lowering.</t>
+          <t>Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Returning to the Home Point</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>64</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Right Dial Locked. Lightly press to adjust.</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>64</v>
+        <v>131</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Running Flight Simulator. Restart aircraft to take off</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>64</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>SD card full. Change card or delete files</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>64</v>
+        <v>118</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Landing Gear Raised.</t>
+          <t>SD card malfunction. Change card</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>66</v>
+        <v>117</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Landing Gear Raising.</t>
+          <t>SD card speed low. Change card</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>66</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>100</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Precision Landing. Locating Landing Point</t>
+          <t>Satellite positioning off. Fly with Caution.</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>100</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Sensing system is blocked or too close to the obstacle.</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>22</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
+          <t>Set Flight Mode to GPS to fly safe</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>22</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Manned aircraft approaching. Fly at a safe altitude</t>
+          <t>Setting new Maximum Flight Altitude to nnn</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Manned aircraft too close. Fly at a safe altitude</t>
+          <t>Setting new Return-To-Home altitude to nnn</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>11</v>
+        <v>54</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Signal Lost. Aircraft returning to Home Point</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>56</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>56</v>
+        <v>134</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
+          <t>Sprayer turned ON</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>57</v>
+        <v>134</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
+          <t>Starting Smart Track</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>57</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
+          <t>Strong Aircraft Interference</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
+          <t>Strong Interference Detected. Be careful when flying long distances.</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached.</t>
+          <t>Strong Interference Now. Fly with caution.</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>55</v>
+        <v>6</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Reaching maximum altitude...</t>
+          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Motor error. Check propellers and fly with caution</t>
+          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Motor or propeller error. Check the motors and propellers.</t>
+          <t>Strong Interference. Fly with caution.</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Motor idle. Check whether propellers are installed</t>
+          <t>Strong Remote Controller Interference</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>127</v>
+        <v>12</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Motor is idling (lost or missing propeller)</t>
+          <t>Strong Remote Controller Interference.</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>127</v>
+        <v>12</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Motor nnn propeller detached or installed incorrectly</t>
+          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>127</v>
+        <v>79</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Propeller Fell Off</t>
+          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>127</v>
+        <v>79</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
+          <t>Strong wind. Fly with caution</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>127</v>
+        <v>3</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Propellers not installed</t>
+          <t>Strong wireless interference. Please fly with caution.</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>127</v>
+        <v>6</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Motor is Blocked</t>
+          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>128</v>
+        <v>6</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
+          <t>Subject lost. Reselect subject</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>128</v>
+        <v>73</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Warning: Motor Obstructed</t>
+          <t>Subject lost. Searching …</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>128</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
+          <t>Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
+          <t>Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Switched to A (Attitude)-mode</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>29</v>
+        <v>119</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Switched to P (Positioning)-mode.</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>29</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
+          <t>Switched to S (Sport)-mode.</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>50</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to hover. Fly with caution</t>
+          <t>Switched to T (Tripod)-mode.</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>50</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Object too close to laser rangefinder</t>
+          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>129</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Object too far for laser rangefinder</t>
+          <t>Take off and retry this function.</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>129</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
+          <t>Take off in P-Mode</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>115</v>
+        <v>135</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Taking Off.</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>115</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
+          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>115</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Tap the screen lightly to focus.</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>99</v>
+        <v>136</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Precision Landing. Correcting Landing Position.</t>
+          <t>Tap the screen to focus.</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>99</v>
+        <v>136</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Precision Landing. Rectifying aircraft position.</t>
+          <t>Tap to choose a valid zone.</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>QuickShot has ended</t>
+          <t>Target lost. QuickShots stopped</t>
         </is>
       </c>
       <c r="B541" t="n">
@@ -5848,421 +5848,421 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Target lost. QuickShots stopped</t>
+          <t>The aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>130</v>
+        <v>62</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
+          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>131</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Right Dial Locked. Lightly press to adjust.</t>
+          <t>The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Remote controller signal lost</t>
+          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Remote controller signal weak. Adjust remote controller antennas</t>
+          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>10</v>
+        <v>138</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Restart aircraft and DJI Fly</t>
+          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 65FT</t>
+          <t>Unable to take off</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>59</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT</t>
+          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>59</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT.</t>
+          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>RTH : Ascending to RTH altitude.</t>
+          <t>Upward Obstacle Detected</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>60</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>RTH Altitude : 65FT.</t>
+          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>60</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT.</t>
+          <t>Vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received</t>
+          <t>Vision sensor(s) blocked. Fly with caution</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>133</v>
+        <v>67</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
+          <t>Vision systems and obstacle avoidance disabled</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>133</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
+          <t>Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>134</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Sprayer turned ON</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>134</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Strong Interference Detected. Be careful when flying long distances.</t>
+          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>6</v>
+        <v>137</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Strong Interference Now. Fly with caution.</t>
+          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Strong Interference. Fly with caution.</t>
+          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution.</t>
+          <t>Warning: Command Failed</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>6</v>
+        <v>97</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Warning: Command Timeout</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>6</v>
+        <v>98</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
+          <t>Warning: Critically low battery. Please change the battery</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
+          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference</t>
+          <t>Warning: Motor Obstructed</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>12</v>
+        <v>128</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference.</t>
+          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Take off in P-Mode</t>
+          <t>Waypoint Mission Paused</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>135</v>
+        <v>84</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
+          <t>Waypoint Mission Resumed</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>135</v>
+        <v>84</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Tap the screen lightly to focus.</t>
+          <t>Waypoint Mission Start</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>136</v>
+        <v>83</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Tap the screen to focus.</t>
+          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>136</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>137</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Weak image transmission signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>137</v>
+        <v>5</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
+          <t>Weak signal. Adjust antenna and avoid signal block.</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>138</v>
+        <v>5</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
+          <t>Weak signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>138</v>
+        <v>5</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Waypoint Mission Paused</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>84</v>
+        <v>4</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>Waypoint Mission Resumed</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>84</v>
+        <v>4</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>Weak image transmission signal. Adjust antennas</t>
+          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antenna and avoid signal block.</t>
+          <t>Yaw Error.</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antennas</t>
+          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
+          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
     </row>
     <row r="584">
